--- a/EM_SPT/wwwroot/file/pass.xlsx
+++ b/EM_SPT/wwwroot/file/pass.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kravchenko_v_e.IRO\Source\Repos\Vi-Comand\EM_SPT\EM_SPT\wwwroot\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>МО</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ОО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Справка </t>
+  </si>
+  <si>
+    <t>АО-администратор школы</t>
+  </si>
+  <si>
+    <t>АК-администратор класса</t>
+  </si>
+  <si>
+    <t>К123У123-ученик</t>
   </si>
 </sst>
 </file>
@@ -67,12 +79,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -139,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -147,17 +165,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -433,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,9 +483,10 @@
     <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
+    <col min="8" max="8" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -457,15 +495,18 @@
       <c r="D1"/>
       <c r="E1"/>
     </row>
-    <row r="2" spans="1:5" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -473,15 +514,21 @@
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
+      <c r="H3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -496,6 +543,9 @@
       </c>
       <c r="E5" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -506,6 +556,11 @@
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
   </mergeCells>
+  <conditionalFormatting sqref="A1:E1048576 H5">
+    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="АК">
+      <formula>LEFT(A1,LEN("АК"))="АК"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EM_SPT/wwwroot/file/pass.xlsx
+++ b/EM_SPT/wwwroot/file/pass.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kravchenko_v_e.IRO\Source\Repos\Vi-Comand\EM_SPT\EM_SPT\wwwroot\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hozja_d_e\source\repos\EM_SPT\EM_SPT\wwwroot\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC82526-BD91-4CA5-A3DB-75D51DFB08C4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$5:$E$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$5:$D$5</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>МО</t>
   </si>
@@ -42,9 +43,6 @@
   </si>
   <si>
     <t>Пароль</t>
-  </si>
-  <si>
-    <t>Тест</t>
   </si>
   <si>
     <t>Администратор ОО</t>
@@ -68,7 +66,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -165,27 +163,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -469,11 +462,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -482,53 +475,48 @@
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="1"/>
-    <col min="8" max="8" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1"/>
       <c r="D1"/>
-      <c r="E1"/>
     </row>
-    <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8"/>
       <c r="C3" s="3"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="H3" t="s">
-        <v>9</v>
+      <c r="G3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4"/>
       <c r="C4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="H4" s="8" t="s">
-        <v>10</v>
+      <c r="D4" s="5"/>
+      <c r="G4" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,23 +529,18 @@
       <c r="D5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>11</v>
+      <c r="G5" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:E5"/>
-  <mergeCells count="4">
+  <autoFilter ref="A5:D5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C2:D2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E1048576 H5">
-    <cfRule type="beginsWith" dxfId="1" priority="1" operator="beginsWith" text="АК">
+  <conditionalFormatting sqref="A1:D1048576 G5">
+    <cfRule type="beginsWith" dxfId="0" priority="1" operator="beginsWith" text="АК">
       <formula>LEFT(A1,LEN("АК"))="АК"</formula>
     </cfRule>
   </conditionalFormatting>
